--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Itgav.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N2">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P2">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q2">
-        <v>325.2890714489052</v>
+        <v>1063.459132239</v>
       </c>
       <c r="R2">
-        <v>2927.601643040147</v>
+        <v>9571.132190151</v>
       </c>
       <c r="S2">
-        <v>0.00226247807187702</v>
+        <v>0.007058744602539489</v>
       </c>
       <c r="T2">
-        <v>0.00226247807187702</v>
+        <v>0.00705874460253949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P3">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q3">
-        <v>2321.681636774859</v>
+        <v>4181.718141610333</v>
       </c>
       <c r="R3">
-        <v>20895.13473097373</v>
+        <v>37635.463274493</v>
       </c>
       <c r="S3">
-        <v>0.01614795655349197</v>
+        <v>0.0277562902669208</v>
       </c>
       <c r="T3">
-        <v>0.01614795655349198</v>
+        <v>0.02775629026692081</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N4">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P4">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q4">
-        <v>2270.382305823801</v>
+        <v>3870.56182093</v>
       </c>
       <c r="R4">
-        <v>20433.4407524142</v>
+        <v>34835.05638837</v>
       </c>
       <c r="S4">
-        <v>0.0157911551065151</v>
+        <v>0.02569098006122995</v>
       </c>
       <c r="T4">
-        <v>0.0157911551065151</v>
+        <v>0.02569098006122995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N5">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P5">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q5">
-        <v>662.2563036304271</v>
+        <v>1005.333196805</v>
       </c>
       <c r="R5">
-        <v>5960.306732673844</v>
+        <v>9047.998771245</v>
       </c>
       <c r="S5">
-        <v>0.004606181075350154</v>
+        <v>0.006672931814277029</v>
       </c>
       <c r="T5">
-        <v>0.004606181075350154</v>
+        <v>0.006672931814277029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N6">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P6">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q6">
-        <v>985.5858422651346</v>
+        <v>1937.126782684333</v>
       </c>
       <c r="R6">
-        <v>8870.27258038621</v>
+        <v>17434.141044159</v>
       </c>
       <c r="S6">
-        <v>0.006855030038805245</v>
+        <v>0.01285774206754823</v>
       </c>
       <c r="T6">
-        <v>0.006855030038805245</v>
+        <v>0.01285774206754823</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H7">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N7">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P7">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q7">
-        <v>2594.331513914789</v>
+        <v>5248.748415418667</v>
       </c>
       <c r="R7">
-        <v>23348.98362523311</v>
+        <v>47238.735738768</v>
       </c>
       <c r="S7">
-        <v>0.01804431404740166</v>
+        <v>0.03483873843785635</v>
       </c>
       <c r="T7">
-        <v>0.01804431404740167</v>
+        <v>0.03483873843785635</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N8">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P8">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q8">
-        <v>121.571553172469</v>
+        <v>220.663857960981</v>
       </c>
       <c r="R8">
-        <v>1094.143978552221</v>
+        <v>1985.974721648829</v>
       </c>
       <c r="S8">
-        <v>0.0008455647525802178</v>
+        <v>0.001464663539141588</v>
       </c>
       <c r="T8">
-        <v>0.0008455647525802179</v>
+        <v>0.001464663539141588</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P9">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q9">
         <v>867.691131760183</v>
@@ -1013,10 +1013,10 @@
         <v>7809.220185841648</v>
       </c>
       <c r="S9">
-        <v>0.006035038773437328</v>
+        <v>0.005759328127718869</v>
       </c>
       <c r="T9">
-        <v>0.006035038773437331</v>
+        <v>0.005759328127718869</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N10">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P10">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q10">
-        <v>848.5188327565621</v>
+        <v>803.1273398204701</v>
       </c>
       <c r="R10">
-        <v>7636.669494809059</v>
+        <v>7228.146058384232</v>
       </c>
       <c r="S10">
-        <v>0.005901689977272882</v>
+        <v>0.005330783857367434</v>
       </c>
       <c r="T10">
-        <v>0.005901689977272883</v>
+        <v>0.005330783857367435</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N11">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P11">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q11">
-        <v>247.507630895788</v>
+        <v>208.602940177095</v>
       </c>
       <c r="R11">
-        <v>2227.568678062092</v>
+        <v>1877.426461593855</v>
       </c>
       <c r="S11">
-        <v>0.001721486015591245</v>
+        <v>0.001384608804805502</v>
       </c>
       <c r="T11">
-        <v>0.001721486015591245</v>
+        <v>0.001384608804805501</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N12">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P12">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q12">
-        <v>368.346840228197</v>
+        <v>401.9466816056291</v>
       </c>
       <c r="R12">
-        <v>3315.121562053773</v>
+        <v>3617.520134450661</v>
       </c>
       <c r="S12">
-        <v>0.002561957108332755</v>
+        <v>0.00266793418127774</v>
       </c>
       <c r="T12">
-        <v>0.002561957108332755</v>
+        <v>0.00266793418127774</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N13">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P13">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q13">
-        <v>969.5896335713352</v>
+        <v>1089.095988460208</v>
       </c>
       <c r="R13">
-        <v>8726.306702142016</v>
+        <v>9801.863896141873</v>
       </c>
       <c r="S13">
-        <v>0.006743771854687078</v>
+        <v>0.007228910070108077</v>
       </c>
       <c r="T13">
-        <v>0.00674377185468708</v>
+        <v>0.007228910070108076</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N14">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P14">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q14">
-        <v>1510.845370922287</v>
+        <v>2681.226324951449</v>
       </c>
       <c r="R14">
-        <v>13597.60833830058</v>
+        <v>24131.03692456304</v>
       </c>
       <c r="S14">
-        <v>0.01050835955380536</v>
+        <v>0.01779672699748317</v>
       </c>
       <c r="T14">
-        <v>0.01050835955380536</v>
+        <v>0.01779672699748317</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P15">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q15">
-        <v>10783.33784179265</v>
+        <v>10543.07817283653</v>
       </c>
       <c r="R15">
-        <v>97050.04057613385</v>
+        <v>94887.70355552876</v>
       </c>
       <c r="S15">
-        <v>0.07500118371646466</v>
+        <v>0.06998002451676397</v>
       </c>
       <c r="T15">
-        <v>0.07500118371646469</v>
+        <v>0.06998002451676397</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N16">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P16">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q16">
-        <v>10545.07174710465</v>
+        <v>9758.581154670297</v>
       </c>
       <c r="R16">
-        <v>94905.64572394184</v>
+        <v>87827.23039203268</v>
       </c>
       <c r="S16">
-        <v>0.07334397521541593</v>
+        <v>0.06477290002573584</v>
       </c>
       <c r="T16">
-        <v>0.07334397521541595</v>
+        <v>0.06477290002573584</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H17">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I17">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J17">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N17">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P17">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q17">
-        <v>3075.931405403206</v>
+        <v>2534.677404054089</v>
       </c>
       <c r="R17">
-        <v>27683.38264862886</v>
+        <v>22812.0966364868</v>
       </c>
       <c r="S17">
-        <v>0.02139397836000076</v>
+        <v>0.01682400376531316</v>
       </c>
       <c r="T17">
-        <v>0.02139397836000076</v>
+        <v>0.01682400376531316</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H18">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I18">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J18">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N18">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P18">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q18">
-        <v>4577.675483532857</v>
+        <v>4883.944447932464</v>
       </c>
       <c r="R18">
-        <v>41199.07935179571</v>
+        <v>43955.50003139217</v>
       </c>
       <c r="S18">
-        <v>0.03183903583213041</v>
+        <v>0.03241734023042668</v>
       </c>
       <c r="T18">
-        <v>0.03183903583213042</v>
+        <v>0.03241734023042667</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H19">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I19">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J19">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N19">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P19">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q19">
-        <v>12049.69395675392</v>
+        <v>13233.30817126781</v>
       </c>
       <c r="R19">
-        <v>108447.2456107853</v>
+        <v>119099.7735414103</v>
       </c>
       <c r="S19">
-        <v>0.08380905091140449</v>
+        <v>0.08783651369001123</v>
       </c>
       <c r="T19">
-        <v>0.08380905091140452</v>
+        <v>0.08783651369001122</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H20">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N20">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P20">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q20">
-        <v>97.44474143745111</v>
+        <v>126.903660352377</v>
       </c>
       <c r="R20">
-        <v>877.0026729370599</v>
+        <v>1142.132943171393</v>
       </c>
       <c r="S20">
-        <v>0.0006777559102737607</v>
+        <v>0.0008423271759102536</v>
       </c>
       <c r="T20">
-        <v>0.0006777559102737608</v>
+        <v>0.0008423271759102537</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H21">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P21">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q21">
-        <v>695.4911389672689</v>
+        <v>499.0086808648776</v>
       </c>
       <c r="R21">
-        <v>6259.42025070542</v>
+        <v>4491.0781277839</v>
       </c>
       <c r="S21">
-        <v>0.004837338814025855</v>
+        <v>0.003312186360428652</v>
       </c>
       <c r="T21">
-        <v>0.004837338814025858</v>
+        <v>0.003312186360428652</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H22">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N22">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P22">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q22">
-        <v>680.1237304706533</v>
+        <v>461.87808050699</v>
       </c>
       <c r="R22">
-        <v>6121.113574235879</v>
+        <v>4156.90272456291</v>
       </c>
       <c r="S22">
-        <v>0.00473045411424082</v>
+        <v>0.003065730792067058</v>
       </c>
       <c r="T22">
-        <v>0.004730454114240821</v>
+        <v>0.003065730792067059</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H23">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N23">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P23">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q23">
-        <v>198.3878338892356</v>
+        <v>119.967433332115</v>
       </c>
       <c r="R23">
-        <v>1785.49050500312</v>
+        <v>1079.706899989035</v>
       </c>
       <c r="S23">
-        <v>0.001379843847511732</v>
+        <v>0.0007962877433105442</v>
       </c>
       <c r="T23">
-        <v>0.001379843847511733</v>
+        <v>0.0007962877433105442</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H24">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N24">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P24">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q24">
-        <v>295.2455707661978</v>
+        <v>231.1593100636597</v>
       </c>
       <c r="R24">
-        <v>2657.21013689578</v>
+        <v>2080.433790572937</v>
       </c>
       <c r="S24">
-        <v>0.002053516974000958</v>
+        <v>0.001534327444067597</v>
       </c>
       <c r="T24">
-        <v>0.002053516974000959</v>
+        <v>0.001534327444067597</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H25">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N25">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P25">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q25">
-        <v>777.1670977153223</v>
+        <v>626.3384891744694</v>
       </c>
       <c r="R25">
-        <v>6994.5038794379</v>
+        <v>5637.046402570224</v>
       </c>
       <c r="S25">
-        <v>0.005405418352769378</v>
+        <v>0.004157342107274715</v>
       </c>
       <c r="T25">
-        <v>0.005405418352769381</v>
+        <v>0.004157342107274715</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H26">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N26">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P26">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q26">
-        <v>1426.081921421663</v>
+        <v>3409.324316612797</v>
       </c>
       <c r="R26">
-        <v>12834.73729279497</v>
+        <v>30683.91884951517</v>
       </c>
       <c r="S26">
-        <v>0.009918805638152402</v>
+        <v>0.02262950111447137</v>
       </c>
       <c r="T26">
-        <v>0.009918805638152402</v>
+        <v>0.02262950111447138</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H27">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P27">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q27">
-        <v>10178.35672976595</v>
+        <v>13406.09423833405</v>
       </c>
       <c r="R27">
-        <v>91605.21056789358</v>
+        <v>120654.8481450064</v>
       </c>
       <c r="S27">
-        <v>0.0707933678997099</v>
+        <v>0.08898338683381503</v>
       </c>
       <c r="T27">
-        <v>0.07079336789970991</v>
+        <v>0.08898338683381504</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H28">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N28">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P28">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q28">
-        <v>9953.45815532423</v>
+        <v>12408.56384134572</v>
       </c>
       <c r="R28">
-        <v>89581.12339791807</v>
+        <v>111677.0745721115</v>
       </c>
       <c r="S28">
-        <v>0.06922913430648042</v>
+        <v>0.08236224635727817</v>
       </c>
       <c r="T28">
-        <v>0.06922913430648042</v>
+        <v>0.08236224635727819</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H29">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N29">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P29">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q29">
-        <v>2903.36142480346</v>
+        <v>3222.979435936682</v>
       </c>
       <c r="R29">
-        <v>26130.25282323114</v>
+        <v>29006.81492343013</v>
       </c>
       <c r="S29">
-        <v>0.02019370503009119</v>
+        <v>0.02139263090403457</v>
       </c>
       <c r="T29">
-        <v>0.02019370503009119</v>
+        <v>0.02139263090403457</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H30">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N30">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P30">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q30">
-        <v>4320.852666223754</v>
+        <v>6210.199568894551</v>
       </c>
       <c r="R30">
-        <v>38887.67399601379</v>
+        <v>55891.79612005095</v>
       </c>
       <c r="S30">
-        <v>0.03005276004385576</v>
+        <v>0.04122040176131168</v>
       </c>
       <c r="T30">
-        <v>0.03005276004385576</v>
+        <v>0.04122040176131168</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H31">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N31">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P31">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q31">
-        <v>11373.6660555149</v>
+        <v>16826.86721284192</v>
       </c>
       <c r="R31">
-        <v>102362.9944996341</v>
+        <v>151441.8049155773</v>
       </c>
       <c r="S31">
-        <v>0.07910708445517645</v>
+        <v>0.1116888787876833</v>
       </c>
       <c r="T31">
-        <v>0.07910708445517646</v>
+        <v>0.1116888787876833</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H32">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I32">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J32">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>10.00115033333333</v>
+        <v>18.153033</v>
       </c>
       <c r="N32">
-        <v>30.003451</v>
+        <v>54.459099</v>
       </c>
       <c r="O32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193577</v>
       </c>
       <c r="P32">
-        <v>0.03551374247070085</v>
+        <v>0.06144694972193578</v>
       </c>
       <c r="Q32">
-        <v>1624.775861885666</v>
+        <v>1755.921528072181</v>
       </c>
       <c r="R32">
-        <v>14622.98275697099</v>
+        <v>15803.29375264963</v>
       </c>
       <c r="S32">
-        <v>0.01130077854401209</v>
+        <v>0.0116549862923899</v>
       </c>
       <c r="T32">
-        <v>0.0113007785440121</v>
+        <v>0.0116549862923899</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H33">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I33">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J33">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.253471791659403</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="P33">
-        <v>0.2534717916594031</v>
+        <v>0.2416207794067722</v>
       </c>
       <c r="Q33">
-        <v>11596.49251545026</v>
+        <v>6904.608448586227</v>
       </c>
       <c r="R33">
-        <v>104368.4326390524</v>
+        <v>62141.47603727604</v>
       </c>
       <c r="S33">
-        <v>0.0806569059022733</v>
+        <v>0.04582956330112488</v>
       </c>
       <c r="T33">
-        <v>0.08065690590227333</v>
+        <v>0.04582956330112488</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H34">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I34">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J34">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>69.803866</v>
+        <v>66.06971</v>
       </c>
       <c r="N34">
-        <v>209.411598</v>
+        <v>198.20913</v>
       </c>
       <c r="O34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="P34">
-        <v>0.2478711386150191</v>
+        <v>0.2236420849624896</v>
       </c>
       <c r="Q34">
-        <v>11340.25914649967</v>
+        <v>6390.845328297803</v>
       </c>
       <c r="R34">
-        <v>102062.332318497</v>
+        <v>57517.60795468023</v>
       </c>
       <c r="S34">
-        <v>0.07887472989509393</v>
+        <v>0.0424194438688111</v>
       </c>
       <c r="T34">
-        <v>0.07887472989509395</v>
+        <v>0.04241944386881111</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H35">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I35">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J35">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>20.36135066666667</v>
+        <v>17.160835</v>
       </c>
       <c r="N35">
-        <v>61.084052</v>
+        <v>51.482505</v>
       </c>
       <c r="O35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="P35">
-        <v>0.07230245920027331</v>
+        <v>0.05808841781048025</v>
       </c>
       <c r="Q35">
-        <v>3307.882591098232</v>
+        <v>1659.947382687762</v>
       </c>
       <c r="R35">
-        <v>29770.94331988409</v>
+        <v>14939.52644418985</v>
       </c>
       <c r="S35">
-        <v>0.02300726487172822</v>
+        <v>0.01101795477873944</v>
       </c>
       <c r="T35">
-        <v>0.02300726487172823</v>
+        <v>0.01101795477873944</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H36">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I36">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J36">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.30225433333333</v>
+        <v>33.06636366666667</v>
       </c>
       <c r="N36">
-        <v>90.906763</v>
+        <v>99.199091</v>
       </c>
       <c r="O36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="P36">
-        <v>0.1076022678200263</v>
+        <v>0.1119276974659227</v>
       </c>
       <c r="Q36">
-        <v>4922.870845909059</v>
+        <v>3198.470460410873</v>
       </c>
       <c r="R36">
-        <v>44305.83761318152</v>
+        <v>28786.23414369786</v>
       </c>
       <c r="S36">
-        <v>0.03423996782290119</v>
+        <v>0.02122995178129072</v>
       </c>
       <c r="T36">
-        <v>0.03423996782290119</v>
+        <v>0.02122995178129072</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H37">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I37">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J37">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>79.76382166666667</v>
+        <v>89.59507733333334</v>
       </c>
       <c r="N37">
-        <v>239.291465</v>
+        <v>268.785232</v>
       </c>
       <c r="O37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="P37">
-        <v>0.2832386002345773</v>
+        <v>0.3032740706323996</v>
       </c>
       <c r="Q37">
-        <v>12958.34256823519</v>
+        <v>8666.426436777363</v>
       </c>
       <c r="R37">
-        <v>116625.0831141167</v>
+        <v>77997.83793099628</v>
       </c>
       <c r="S37">
-        <v>0.09012896061313817</v>
+        <v>0.05752368753946586</v>
       </c>
       <c r="T37">
-        <v>0.0901289606131382</v>
+        <v>0.05752368753946586</v>
       </c>
     </row>
   </sheetData>
